--- a/backend/skyrim_db.xlsx
+++ b/backend/skyrim_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John-\OneDrive\Dokumente\GitHub\uQuest\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA9F2CF-8EDD-4861-BE30-643712366C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA4CD0-2362-445C-AAA6-BE086418B605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>itemId</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Falkreath</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,10 +510,10 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -547,11 +550,11 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>10</v>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -588,11 +591,11 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3">
-        <v>6</v>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -629,11 +632,11 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
-        <v>10</v>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -670,11 +673,11 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>20</v>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -711,11 +714,11 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="G6">
-        <v>20</v>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -735,5 +738,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>